--- a/AAII_Financials/Quarterly/KIROY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIROY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -714,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1672900</v>
+        <v>1606200</v>
       </c>
       <c r="E8" s="3">
-        <v>2072700</v>
+        <v>1990000</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -743,10 +743,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E9" s="3">
-        <v>69300</v>
+        <v>66500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -772,10 +772,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1668200</v>
+        <v>1601600</v>
       </c>
       <c r="E10" s="3">
-        <v>2003400</v>
+        <v>1923500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -872,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>289800</v>
+        <v>278300</v>
       </c>
       <c r="E14" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -901,10 +901,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>136000</v>
+        <v>130500</v>
       </c>
       <c r="E15" s="3">
-        <v>140500</v>
+        <v>134900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>3</v>
@@ -940,10 +940,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1333600</v>
+        <v>1280400</v>
       </c>
       <c r="E17" s="3">
-        <v>1125500</v>
+        <v>1080500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -969,10 +969,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>339300</v>
+        <v>325800</v>
       </c>
       <c r="E18" s="3">
-        <v>947300</v>
+        <v>909400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="E20" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1098,10 +1098,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>333000</v>
+        <v>319700</v>
       </c>
       <c r="E23" s="3">
-        <v>959600</v>
+        <v>921300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1127,10 +1127,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90500</v>
+        <v>86900</v>
       </c>
       <c r="E24" s="3">
-        <v>257400</v>
+        <v>247100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1185,10 +1185,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>242500</v>
+        <v>232800</v>
       </c>
       <c r="E26" s="3">
-        <v>702200</v>
+        <v>674200</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1214,10 +1214,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>183900</v>
+        <v>176600</v>
       </c>
       <c r="E27" s="3">
-        <v>534000</v>
+        <v>512700</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1359,10 +1359,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="E32" s="3">
-        <v>-12400</v>
+        <v>-11900</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1388,10 +1388,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>183900</v>
+        <v>176600</v>
       </c>
       <c r="E33" s="3">
-        <v>534000</v>
+        <v>512700</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1446,10 +1446,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>183900</v>
+        <v>176600</v>
       </c>
       <c r="E35" s="3">
-        <v>534000</v>
+        <v>512700</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1535,7 +1535,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>884800</v>
+        <v>849400</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1593,7 +1593,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>318900</v>
+        <v>306100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1622,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>459500</v>
+        <v>441100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1680,7 +1680,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1663100</v>
+        <v>1596700</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1709,7 +1709,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>45600</v>
+        <v>43800</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1738,7 +1738,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2334200</v>
+        <v>2241000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1854,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>410000</v>
+        <v>393600</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>3</v>
@@ -1912,7 +1912,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4452800</v>
+        <v>4275100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1967,7 +1967,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>431200</v>
+        <v>414000</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1996,7 +1996,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>373800</v>
+        <v>358800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2025,7 +2025,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27600</v>
+        <v>26500</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2054,7 +2054,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>832600</v>
+        <v>799400</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2083,7 +2083,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>712600</v>
+        <v>684200</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2228,7 +2228,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2241700</v>
+        <v>2152200</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2502,7 +2502,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2211100</v>
+        <v>2122900</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2594,10 +2594,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>183900</v>
+        <v>176600</v>
       </c>
       <c r="E81" s="3">
-        <v>534000</v>
+        <v>512700</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/KIROY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIROY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>KIROY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,36 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,19 +710,22 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1606200</v>
+        <v>2028400</v>
       </c>
       <c r="E8" s="3">
-        <v>1990000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>1645600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2038800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -737,19 +742,22 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4600</v>
+        <v>93500</v>
       </c>
       <c r="E9" s="3">
-        <v>66500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>4700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>68100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -766,19 +774,22 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1601600</v>
+        <v>1934900</v>
       </c>
       <c r="E10" s="3">
-        <v>1923500</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>1640900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1970700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -795,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,19 +884,22 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>278300</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>285100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -895,19 +916,22 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>130500</v>
+        <v>121300</v>
       </c>
       <c r="E15" s="3">
-        <v>134900</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>133700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>138200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -924,8 +948,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,19 +961,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1280400</v>
+        <v>1099400</v>
       </c>
       <c r="E17" s="3">
-        <v>1080500</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>1311800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1107100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -963,19 +991,22 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>325800</v>
+        <v>929000</v>
       </c>
       <c r="E18" s="3">
-        <v>909400</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>333800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>931800</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,19 +1039,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6100</v>
+        <v>-3900</v>
       </c>
       <c r="E20" s="3">
-        <v>11900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>-6200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>12200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1034,13 +1069,16 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>1046400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1063,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,19 +1133,22 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>319700</v>
+        <v>925100</v>
       </c>
       <c r="E23" s="3">
-        <v>921300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>327600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>944000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1121,19 +1165,22 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>86900</v>
+        <v>253800</v>
       </c>
       <c r="E24" s="3">
-        <v>247100</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>89000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>253200</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1150,8 +1197,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,19 +1229,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>232800</v>
+        <v>671300</v>
       </c>
       <c r="E26" s="3">
-        <v>674200</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>238600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>690800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1208,19 +1261,22 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176600</v>
+        <v>510900</v>
       </c>
       <c r="E27" s="3">
-        <v>512700</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>180900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>525300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1237,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,19 +1421,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6100</v>
+        <v>3900</v>
       </c>
       <c r="E32" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-12200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1382,19 +1453,22 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176600</v>
+        <v>510900</v>
       </c>
       <c r="E33" s="3">
-        <v>512700</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>180900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>525300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,19 +1517,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176600</v>
+        <v>510900</v>
       </c>
       <c r="E35" s="3">
-        <v>512700</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>180900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>525300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1469,25 +1549,28 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,16 +1616,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>849400</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>780300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>870300</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1558,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,16 +1678,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>306100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>348600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>313600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1616,16 +1710,19 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>441100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>575300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>452000</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1645,8 +1742,11 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1674,16 +1774,19 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1596700</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+        <v>1704300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1635900</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1703,16 +1806,19 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>43800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>47100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>44800</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1732,16 +1838,19 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2241000</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>2409000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2296100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1761,8 +1870,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,16 +1966,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>393600</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>436600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>403300</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1877,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,16 +2030,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4275100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+        <v>4597000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4380100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1935,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,16 +2092,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>414000</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+        <v>493600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>424200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1990,16 +2122,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>358800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>44800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>367600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2154,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26500</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+        <v>71600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>27200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2048,16 +2186,19 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>799400</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+        <v>610100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>819000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2077,16 +2218,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8100</v>
+        <v>6400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2106,16 +2250,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>684200</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>758300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>701000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,16 +2378,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2152200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>2140500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2205100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,8 +2552,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2409,8 +2584,11 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,16 +2680,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2122900</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+        <v>2456500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2175000</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,25 +2744,28 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,19 +2781,22 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176600</v>
+        <v>510900</v>
       </c>
       <c r="E81" s="3">
-        <v>512700</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>180900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>525300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,37 +3019,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>786100</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,16 +3067,17 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-4999000</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-11084000</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2875,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,37 +3161,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-264700</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,13 +3209,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-278200</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3004,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,91 +3335,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>-691000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>79600</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-90000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KIROY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KIROY_QTR_FIN.xlsx
@@ -719,13 +719,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2028400</v>
+        <v>2085400</v>
       </c>
       <c r="E8" s="3">
-        <v>1645600</v>
+        <v>1691900</v>
       </c>
       <c r="F8" s="3">
-        <v>2038800</v>
+        <v>2096200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>93500</v>
+        <v>96200</v>
       </c>
       <c r="E9" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F9" s="3">
-        <v>68100</v>
+        <v>70100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -783,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1934900</v>
+        <v>1989300</v>
       </c>
       <c r="E10" s="3">
-        <v>1640900</v>
+        <v>1687100</v>
       </c>
       <c r="F10" s="3">
-        <v>1970700</v>
+        <v>2026100</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -893,13 +893,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>285100</v>
+        <v>293100</v>
       </c>
       <c r="F14" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -925,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>121300</v>
+        <v>124700</v>
       </c>
       <c r="E15" s="3">
-        <v>133700</v>
+        <v>137500</v>
       </c>
       <c r="F15" s="3">
-        <v>138200</v>
+        <v>142100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -968,13 +968,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1099400</v>
+        <v>1130400</v>
       </c>
       <c r="E17" s="3">
-        <v>1311800</v>
+        <v>1348700</v>
       </c>
       <c r="F17" s="3">
-        <v>1107100</v>
+        <v>1138200</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -1000,13 +1000,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>929000</v>
+        <v>955100</v>
       </c>
       <c r="E18" s="3">
-        <v>333800</v>
+        <v>343200</v>
       </c>
       <c r="F18" s="3">
-        <v>931800</v>
+        <v>958000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1046,13 +1046,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="E20" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="F20" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1046400</v>
+        <v>1075800</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1142,13 +1142,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>925100</v>
+        <v>951100</v>
       </c>
       <c r="E23" s="3">
-        <v>327600</v>
+        <v>336800</v>
       </c>
       <c r="F23" s="3">
-        <v>944000</v>
+        <v>970500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1174,13 +1174,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>253800</v>
+        <v>261000</v>
       </c>
       <c r="E24" s="3">
-        <v>89000</v>
+        <v>91500</v>
       </c>
       <c r="F24" s="3">
-        <v>253200</v>
+        <v>260300</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1238,13 +1238,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>671300</v>
+        <v>690200</v>
       </c>
       <c r="E26" s="3">
-        <v>238600</v>
+        <v>245300</v>
       </c>
       <c r="F26" s="3">
-        <v>690800</v>
+        <v>710200</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1270,13 +1270,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>510900</v>
+        <v>525300</v>
       </c>
       <c r="E27" s="3">
-        <v>180900</v>
+        <v>186000</v>
       </c>
       <c r="F27" s="3">
-        <v>525300</v>
+        <v>540100</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1430,13 +1430,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E32" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="F32" s="3">
-        <v>-12200</v>
+        <v>-12500</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1462,13 +1462,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>510900</v>
+        <v>525300</v>
       </c>
       <c r="E33" s="3">
-        <v>180900</v>
+        <v>186000</v>
       </c>
       <c r="F33" s="3">
-        <v>525300</v>
+        <v>540100</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1526,13 +1526,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>510900</v>
+        <v>525300</v>
       </c>
       <c r="E35" s="3">
-        <v>180900</v>
+        <v>186000</v>
       </c>
       <c r="F35" s="3">
-        <v>525300</v>
+        <v>540100</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1623,10 +1623,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>780300</v>
+        <v>802300</v>
       </c>
       <c r="E41" s="3">
-        <v>870300</v>
+        <v>894800</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>348600</v>
+        <v>358400</v>
       </c>
       <c r="E43" s="3">
-        <v>313600</v>
+        <v>322500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1719,10 +1719,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>575300</v>
+        <v>591500</v>
       </c>
       <c r="E44" s="3">
-        <v>452000</v>
+        <v>464700</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1783,10 +1783,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1704300</v>
+        <v>1752200</v>
       </c>
       <c r="E46" s="3">
-        <v>1635900</v>
+        <v>1681900</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1815,10 +1815,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>47100</v>
+        <v>48400</v>
       </c>
       <c r="E47" s="3">
-        <v>44800</v>
+        <v>46100</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1847,10 +1847,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2409000</v>
+        <v>2476800</v>
       </c>
       <c r="E48" s="3">
-        <v>2296100</v>
+        <v>2360600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1975,10 +1975,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>436600</v>
+        <v>448900</v>
       </c>
       <c r="E52" s="3">
-        <v>403300</v>
+        <v>414600</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2039,10 +2039,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4597000</v>
+        <v>4726200</v>
       </c>
       <c r="E54" s="3">
-        <v>4380100</v>
+        <v>4503300</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -2099,10 +2099,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>493600</v>
+        <v>507500</v>
       </c>
       <c r="E57" s="3">
-        <v>424200</v>
+        <v>436100</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -2131,10 +2131,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>44800</v>
+        <v>46100</v>
       </c>
       <c r="E58" s="3">
-        <v>367600</v>
+        <v>378000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2163,10 +2163,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>71600</v>
+        <v>73700</v>
       </c>
       <c r="E59" s="3">
-        <v>27200</v>
+        <v>27900</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2195,10 +2195,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>610100</v>
+        <v>627200</v>
       </c>
       <c r="E60" s="3">
-        <v>819000</v>
+        <v>842000</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2227,10 +2227,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E61" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2259,10 +2259,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>758300</v>
+        <v>779600</v>
       </c>
       <c r="E62" s="3">
-        <v>701000</v>
+        <v>720700</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2387,10 +2387,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2140500</v>
+        <v>2200700</v>
       </c>
       <c r="E66" s="3">
-        <v>2205100</v>
+        <v>2267100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2689,10 +2689,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2456500</v>
+        <v>2525600</v>
       </c>
       <c r="E76" s="3">
-        <v>2175000</v>
+        <v>2236200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2790,13 +2790,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>510900</v>
+        <v>525300</v>
       </c>
       <c r="E81" s="3">
-        <v>180900</v>
+        <v>186000</v>
       </c>
       <c r="F81" s="3">
-        <v>525300</v>
+        <v>540100</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -3028,7 +3028,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>786100</v>
+        <v>808200</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>3</v>
@@ -3170,7 +3170,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-264700</v>
+        <v>-272100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-278200</v>
+        <v>-286000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-691000</v>
+        <v>-710400</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
@@ -3376,7 +3376,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>79600</v>
+        <v>81900</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>3</v>
@@ -3408,7 +3408,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-90000</v>
+        <v>-92500</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>3</v>
